--- a/core/app/views/Excels/downloadProductTemplate.xlsx
+++ b/core/app/views/Excels/downloadProductTemplate.xlsx
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sku!$A$1:$AA$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sku!$A$1:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>upc</t>
   </si>
@@ -145,17 +145,6 @@
   </si>
   <si>
     <t>产品状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上市时间(格式:2016/5/1)</t>
-    <rPh sb="5" eb="6">
-      <t>ge'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退市时间(格式:2016/5/1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -290,13 +279,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -594,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB55"/>
+  <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -623,66 +605,62 @@
     <col min="21" max="21" width="11" style="3"/>
     <col min="22" max="22" width="18.33203125" style="3" customWidth="1"/>
     <col min="23" max="23" width="23" style="3" customWidth="1"/>
-    <col min="24" max="24" width="26.1640625" style="12" customWidth="1"/>
-    <col min="25" max="25" width="25.6640625" style="12" customWidth="1"/>
-    <col min="26" max="26" width="16.5" style="7" customWidth="1"/>
-    <col min="27" max="27" width="11" style="3"/>
-    <col min="28" max="28" width="32.33203125" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="11" style="3"/>
+    <col min="24" max="24" width="16.5" style="7" customWidth="1"/>
+    <col min="25" max="25" width="11" style="3"/>
+    <col min="26" max="26" width="32.33203125" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="9" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:26" s="9" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-    </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+    </row>
+    <row r="2" spans="1:26" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -694,34 +672,34 @@
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="10" t="s">
         <v>25</v>
       </c>
       <c r="U2" s="1" t="s">
@@ -730,402 +708,290 @@
       <c r="V2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="10" t="s">
-        <v>27</v>
+      <c r="X2" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="Z2" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S3" s="4"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="6"/>
-      <c r="AB3" s="8"/>
-    </row>
-    <row r="4" spans="1:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X3" s="6"/>
+      <c r="Z3" s="8"/>
+    </row>
+    <row r="4" spans="1:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S4" s="4"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="6"/>
-      <c r="AB4" s="8"/>
-    </row>
-    <row r="5" spans="1:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X4" s="6"/>
+      <c r="Z4" s="8"/>
+    </row>
+    <row r="5" spans="1:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S5" s="4"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="6"/>
-      <c r="AB5" s="8"/>
-    </row>
-    <row r="6" spans="1:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X5" s="6"/>
+      <c r="Z5" s="8"/>
+    </row>
+    <row r="6" spans="1:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S6" s="4"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="6"/>
-      <c r="AB6" s="8"/>
-    </row>
-    <row r="7" spans="1:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X6" s="6"/>
+      <c r="Z6" s="8"/>
+    </row>
+    <row r="7" spans="1:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S7" s="4"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="6"/>
-      <c r="AB7" s="8"/>
-    </row>
-    <row r="8" spans="1:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X7" s="6"/>
+      <c r="Z7" s="8"/>
+    </row>
+    <row r="8" spans="1:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S8" s="4"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="6"/>
-      <c r="AB8" s="8"/>
-    </row>
-    <row r="9" spans="1:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X8" s="6"/>
+      <c r="Z8" s="8"/>
+    </row>
+    <row r="9" spans="1:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S9" s="4"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="6"/>
-      <c r="AB9" s="8"/>
-    </row>
-    <row r="10" spans="1:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X9" s="6"/>
+      <c r="Z9" s="8"/>
+    </row>
+    <row r="10" spans="1:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S10" s="4"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="6"/>
-      <c r="AB10" s="8"/>
-    </row>
-    <row r="11" spans="1:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X10" s="6"/>
+      <c r="Z10" s="8"/>
+    </row>
+    <row r="11" spans="1:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S11" s="4"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="6"/>
-      <c r="AB11" s="8"/>
-    </row>
-    <row r="12" spans="1:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X11" s="6"/>
+      <c r="Z11" s="8"/>
+    </row>
+    <row r="12" spans="1:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S12" s="4"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="6"/>
-      <c r="AB12" s="8"/>
-    </row>
-    <row r="13" spans="1:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X12" s="6"/>
+      <c r="Z12" s="8"/>
+    </row>
+    <row r="13" spans="1:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S13" s="4"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="6"/>
-      <c r="AB13" s="8"/>
-    </row>
-    <row r="14" spans="1:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X13" s="6"/>
+      <c r="Z13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S14" s="4"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="6"/>
-      <c r="AB14" s="8"/>
-    </row>
-    <row r="15" spans="1:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X14" s="6"/>
+      <c r="Z14" s="8"/>
+    </row>
+    <row r="15" spans="1:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S15" s="4"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="6"/>
-      <c r="AB15" s="8"/>
-    </row>
-    <row r="16" spans="1:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X15" s="6"/>
+      <c r="Z15" s="8"/>
+    </row>
+    <row r="16" spans="1:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S16" s="4"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="6"/>
-      <c r="AB16" s="8"/>
-    </row>
-    <row r="17" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X16" s="6"/>
+      <c r="Z16" s="8"/>
+    </row>
+    <row r="17" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S17" s="4"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="6"/>
-      <c r="AB17" s="8"/>
-    </row>
-    <row r="18" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X17" s="6"/>
+      <c r="Z17" s="8"/>
+    </row>
+    <row r="18" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S18" s="4"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="6"/>
-      <c r="AB18" s="8"/>
-    </row>
-    <row r="19" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X18" s="6"/>
+      <c r="Z18" s="8"/>
+    </row>
+    <row r="19" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S19" s="4"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="6"/>
-      <c r="AB19" s="8"/>
-    </row>
-    <row r="20" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X19" s="6"/>
+      <c r="Z19" s="8"/>
+    </row>
+    <row r="20" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S20" s="4"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="6"/>
-      <c r="AB20" s="8"/>
-    </row>
-    <row r="21" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X20" s="6"/>
+      <c r="Z20" s="8"/>
+    </row>
+    <row r="21" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S21" s="4"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="6"/>
-      <c r="AB21" s="8"/>
-    </row>
-    <row r="22" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X21" s="6"/>
+      <c r="Z21" s="8"/>
+    </row>
+    <row r="22" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S22" s="4"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="6"/>
-      <c r="AB22" s="8"/>
-    </row>
-    <row r="23" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X22" s="6"/>
+      <c r="Z22" s="8"/>
+    </row>
+    <row r="23" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S23" s="4"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="6"/>
-      <c r="AB23" s="8"/>
-    </row>
-    <row r="24" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X23" s="6"/>
+      <c r="Z23" s="8"/>
+    </row>
+    <row r="24" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S24" s="4"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="6"/>
-      <c r="AB24" s="8"/>
-    </row>
-    <row r="25" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X24" s="6"/>
+      <c r="Z24" s="8"/>
+    </row>
+    <row r="25" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S25" s="4"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="6"/>
-      <c r="AB25" s="8"/>
-    </row>
-    <row r="26" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X25" s="6"/>
+      <c r="Z25" s="8"/>
+    </row>
+    <row r="26" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S26" s="4"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="6"/>
-      <c r="AB26" s="8"/>
-    </row>
-    <row r="27" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X26" s="6"/>
+      <c r="Z26" s="8"/>
+    </row>
+    <row r="27" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S27" s="4"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="6"/>
-      <c r="AB27" s="8"/>
-    </row>
-    <row r="28" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X27" s="6"/>
+      <c r="Z27" s="8"/>
+    </row>
+    <row r="28" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S28" s="4"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="6"/>
-      <c r="AB28" s="8"/>
-    </row>
-    <row r="29" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X28" s="6"/>
+      <c r="Z28" s="8"/>
+    </row>
+    <row r="29" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S29" s="4"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="6"/>
-      <c r="AB29" s="8"/>
-    </row>
-    <row r="30" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X29" s="6"/>
+      <c r="Z29" s="8"/>
+    </row>
+    <row r="30" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S30" s="4"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="6"/>
-      <c r="AB30" s="8"/>
-    </row>
-    <row r="31" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X30" s="6"/>
+      <c r="Z30" s="8"/>
+    </row>
+    <row r="31" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S31" s="4"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="6"/>
-      <c r="AB31" s="8"/>
-    </row>
-    <row r="32" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X31" s="6"/>
+      <c r="Z31" s="8"/>
+    </row>
+    <row r="32" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S32" s="4"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="6"/>
-      <c r="AB32" s="8"/>
-    </row>
-    <row r="33" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X32" s="6"/>
+      <c r="Z32" s="8"/>
+    </row>
+    <row r="33" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S33" s="4"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="6"/>
-      <c r="AB33" s="8"/>
-    </row>
-    <row r="34" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X33" s="6"/>
+      <c r="Z33" s="8"/>
+    </row>
+    <row r="34" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S34" s="4"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="6"/>
-      <c r="AB34" s="8"/>
-    </row>
-    <row r="35" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X34" s="6"/>
+      <c r="Z34" s="8"/>
+    </row>
+    <row r="35" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S35" s="4"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="6"/>
-      <c r="AB35" s="8"/>
-    </row>
-    <row r="36" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X35" s="6"/>
+      <c r="Z35" s="8"/>
+    </row>
+    <row r="36" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S36" s="4"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="6"/>
-      <c r="AB36" s="8"/>
-    </row>
-    <row r="37" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X36" s="6"/>
+      <c r="Z36" s="8"/>
+    </row>
+    <row r="37" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S37" s="4"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="6"/>
-      <c r="AB37" s="8"/>
-    </row>
-    <row r="38" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X37" s="6"/>
+      <c r="Z37" s="8"/>
+    </row>
+    <row r="38" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S38" s="4"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="6"/>
-      <c r="AB38" s="8"/>
-    </row>
-    <row r="39" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X38" s="6"/>
+      <c r="Z38" s="8"/>
+    </row>
+    <row r="39" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S39" s="4"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="6"/>
-      <c r="AB39" s="8"/>
-    </row>
-    <row r="40" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X39" s="6"/>
+      <c r="Z39" s="8"/>
+    </row>
+    <row r="40" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S40" s="4"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="6"/>
-      <c r="AB40" s="8"/>
-    </row>
-    <row r="41" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X40" s="6"/>
+      <c r="Z40" s="8"/>
+    </row>
+    <row r="41" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S41" s="4"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11"/>
-      <c r="Z41" s="6"/>
-      <c r="AB41" s="8"/>
-    </row>
-    <row r="42" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X41" s="6"/>
+      <c r="Z41" s="8"/>
+    </row>
+    <row r="42" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S42" s="4"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11"/>
-      <c r="Z42" s="6"/>
-      <c r="AB42" s="8"/>
-    </row>
-    <row r="43" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X42" s="6"/>
+      <c r="Z42" s="8"/>
+    </row>
+    <row r="43" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S43" s="4"/>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="6"/>
-      <c r="AB43" s="8"/>
-    </row>
-    <row r="44" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X43" s="6"/>
+      <c r="Z43" s="8"/>
+    </row>
+    <row r="44" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S44" s="4"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="6"/>
-      <c r="AB44" s="8"/>
-    </row>
-    <row r="45" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X44" s="6"/>
+      <c r="Z44" s="8"/>
+    </row>
+    <row r="45" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S45" s="4"/>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="6"/>
-      <c r="AB45" s="8"/>
-    </row>
-    <row r="46" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X45" s="6"/>
+      <c r="Z45" s="8"/>
+    </row>
+    <row r="46" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S46" s="4"/>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="11"/>
-      <c r="Z46" s="6"/>
-      <c r="AB46" s="8"/>
-    </row>
-    <row r="47" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X46" s="6"/>
+      <c r="Z46" s="8"/>
+    </row>
+    <row r="47" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S47" s="4"/>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="11"/>
-      <c r="Z47" s="6"/>
-      <c r="AB47" s="8"/>
-    </row>
-    <row r="48" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X47" s="6"/>
+      <c r="Z47" s="8"/>
+    </row>
+    <row r="48" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S48" s="4"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="11"/>
-      <c r="Z48" s="6"/>
-      <c r="AB48" s="8"/>
-    </row>
-    <row r="49" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X48" s="6"/>
+      <c r="Z48" s="8"/>
+    </row>
+    <row r="49" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S49" s="4"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="6"/>
-      <c r="AB49" s="8"/>
-    </row>
-    <row r="50" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X49" s="6"/>
+      <c r="Z49" s="8"/>
+    </row>
+    <row r="50" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S50" s="4"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="11"/>
-      <c r="Z50" s="6"/>
-      <c r="AB50" s="8"/>
-    </row>
-    <row r="51" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X50" s="6"/>
+      <c r="Z50" s="8"/>
+    </row>
+    <row r="51" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S51" s="4"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="6"/>
-      <c r="AB51" s="8"/>
-    </row>
-    <row r="52" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X51" s="6"/>
+      <c r="Z51" s="8"/>
+    </row>
+    <row r="52" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S52" s="4"/>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="11"/>
-      <c r="Z52" s="6"/>
-      <c r="AB52" s="8"/>
-    </row>
-    <row r="53" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X52" s="6"/>
+      <c r="Z52" s="8"/>
+    </row>
+    <row r="53" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S53" s="4"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="6"/>
-      <c r="AB53" s="8"/>
-    </row>
-    <row r="54" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X53" s="6"/>
+      <c r="Z53" s="8"/>
+    </row>
+    <row r="54" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S54" s="4"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="6"/>
-      <c r="AB54" s="8"/>
-    </row>
-    <row r="55" spans="19:28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="X54" s="6"/>
+      <c r="Z54" s="8"/>
+    </row>
+    <row r="55" spans="19:26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="S55" s="4"/>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="11"/>
-      <c r="Z55" s="6"/>
-      <c r="AB55" s="8"/>
+      <c r="X55" s="6"/>
+      <c r="Z55" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="A1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576">
       <formula1>"未上架,上架,下架"</formula1>
     </dataValidation>
@@ -1134,6 +1000,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
       <formula1>"开发期,引进期,成长期,成熟期,衰退期,退市"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z1048576">
+      <formula1>"NEW,SELLING,DOWN"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
